--- a/biology/Microbiologie/Barnesiellaceae/Barnesiellaceae.xlsx
+++ b/biology/Microbiologie/Barnesiellaceae/Barnesiellaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Barnesiellaceae est une famille bactérienne copreant le genre de bactéries à Gram négatif Barnesiella faisant partie de l'ordre des Bacteroidales et du phylum Bacteroidota.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille Barnesiellaceae a été décrite en 2019[2] et validée l'année suivante par l'ICSP. Cette famille , en même temps que la création du genre Barnesiella pour contenir deux souches de bactéries isolées du caecum de poulets[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille Barnesiellaceae a été décrite en 2019 et validée l'année suivante par l'ICSP. Cette famille , en même temps que la création du genre Barnesiella pour contenir deux souches de bactéries isolées du caecum de poulets.
 </t>
         </is>
       </c>
@@ -544,10 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-L'étymologie de la famille Barnesiellaceae est la suivante :  Bar.ne.si.el.la’ce.ae N.L. fem. dim. n. Barnesiella, genre type de la famille; L. fem. pl. n. suff. -aceae, suffixe utilisé pour définir une famille; N.L. fem. pl. n. Barnesiellaceae, ce qui signifie la famille des Barnesiella[2],[3].
-Classification Phylogénique
-L'analyse phylogénétique de séquences de l'ARNr 16S a permis de classer les Barnesiella proches de Parabacteroides distasonis. Elles ont donc d'abord été classées au sein de la famille Porphyromonadaceae dès leur description et dans le Bergey's Manual[4]. En 2016, les Barnesiella et donc Barnesiella viscericola aussi, sont reclassées dans la famille des Barnesiellaceae nouvellement créée et dont elles deviennent le genre type, et donc séparées de la famille Porphyromonadaceae tout en restant incluses dans l'ordre des Bacteroidales[5], la classe des Bacteroidia et dans le phylum Bacteroidota[3]. Cette première description de la famille Barnesiellaceae n'a pas été formellement validée[3]. En 2019, une nouvelle étude basée sur le séquençage des généomes redéfinit de nombreux taxons et confirme l'existence de la famille Barnesiellaceae[2].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de la famille Barnesiellaceae est la suivante :  Bar.ne.si.el.la’ce.ae N.L. fem. dim. n. Barnesiella, genre type de la famille; L. fem. pl. n. suff. -aceae, suffixe utilisé pour définir une famille; N.L. fem. pl. n. Barnesiellaceae, ce qui signifie la famille des Barnesiella,.
 </t>
         </is>
       </c>
@@ -573,10 +590,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Classification Phylogénique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'analyse phylogénétique de séquences de l'ARNr 16S a permis de classer les Barnesiella proches de Parabacteroides distasonis. Elles ont donc d'abord été classées au sein de la famille Porphyromonadaceae dès leur description et dans le Bergey's Manual. En 2016, les Barnesiella et donc Barnesiella viscericola aussi, sont reclassées dans la famille des Barnesiellaceae nouvellement créée et dont elles deviennent le genre type, et donc séparées de la famille Porphyromonadaceae tout en restant incluses dans l'ordre des Bacteroidales, la classe des Bacteroidia et dans le phylum Bacteroidota. Cette première description de la famille Barnesiellaceae n'a pas été formellement validée. En 2019, une nouvelle étude basée sur le séquençage des généomes redéfinit de nombreux taxons et confirme l'existence de la famille Barnesiellaceae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Barnesiellaceae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Barnesiellaceae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>La famille Barnesiellaceae comprend actuellement deux genres bactériens:
 Barnesiella, genre type depuis 2019
